--- a/ProjectTest65/Excel/AddShift.xlsx
+++ b/ProjectTest65/Excel/AddShift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MiniProjectTest\ProjectTest65\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF17A89-0189-47FD-968B-61E25B16B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1208EC-FAE4-4934-9807-0CAC937B5AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
     <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>

--- a/ProjectTest65/Excel/AddShift.xlsx
+++ b/ProjectTest65/Excel/AddShift.xlsx
@@ -489,8 +489,8 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="84" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -733,7 +733,7 @@
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
@@ -782,7 +782,7 @@
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
@@ -994,7 +994,7 @@
     <row r="10" ht="18.75" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
@@ -1414,7 +1414,7 @@
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
@@ -1873,7 +1873,11 @@
           <t>ความยาวตัวอักษรตั้งแต่ 6 – 50 ตัวอักษร</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>เกิดข้อผิดพลาด กรุณาลองใหม่อีกครั้ง !!!</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>Fail</t>
@@ -1883,7 +1887,7 @@
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B27" s="4" t="n">
@@ -1918,9 +1922,14 @@
           <t>กรุณากรอกการรับหน้าที่</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>กรุณากรอกการรับหน้าที่</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/ProjectTest65/Excel/AddShift.xlsx
+++ b/ProjectTest65/Excel/AddShift.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6375" yWindow="2985" windowWidth="12585" windowHeight="11235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddShift" sheetId="1" state="visible" r:id="rId1"/>
@@ -489,24 +489,24 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="L5" sqref="J5:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="24.109375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="11.6640625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="9.5546875" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="9.88671875" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="40.33203125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="37.5546875" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="35.44140625" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="20.88671875" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="24.140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="9.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="40.28515625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="37.5703125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="35.42578125" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="20.85546875" bestFit="1" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -782,7 +782,7 @@
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
@@ -994,7 +994,7 @@
     <row r="10" ht="18.75" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
@@ -1414,7 +1414,7 @@
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
@@ -1834,7 +1834,7 @@
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B26" s="4" t="n">
@@ -1887,7 +1887,7 @@
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B27" s="4" t="n">

--- a/ProjectTest65/Excel/AddShift.xlsx
+++ b/ProjectTest65/Excel/AddShift.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MiniProjectTest\ProjectTest65\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A900A-C6DF-4C45-AE62-C2BAA33501EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C535674D-4B75-43B0-8C90-4E57081C4E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddShift" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="44">
   <si>
     <t>Execute</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>กรุณากรอกการรับหน้าที่</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -684,22 +687,22 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.88671875" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="19.5" customHeight="1">
@@ -762,11 +765,13 @@
       <c r="I2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B3" s="13">
         <v>2</v>
@@ -792,11 +797,13 @@
       <c r="I3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B4" s="13">
         <v>3</v>
@@ -822,7 +829,9 @@
       <c r="I4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -850,7 +859,9 @@
       <c r="I5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" customHeight="1">
       <c r="A6" s="12" t="s">
@@ -880,14 +891,16 @@
       <c r="I6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B7" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>11</v>
@@ -910,14 +923,16 @@
       <c r="I7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B8" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>11</v>
@@ -940,14 +955,16 @@
       <c r="I8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="18.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
@@ -968,14 +985,16 @@
       <c r="I9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B10" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>11</v>
@@ -998,14 +1017,16 @@
       <c r="I10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>11</v>
@@ -1028,14 +1049,16 @@
       <c r="I11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="18.75" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B12" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>11</v>
@@ -1058,14 +1081,16 @@
       <c r="I12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="18.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B13" s="13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>11</v>
@@ -1086,7 +1111,9 @@
       <c r="I13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="M13" s="22" t="s">
         <v>8</v>
       </c>
@@ -1095,10 +1122,10 @@
     </row>
     <row r="14" spans="1:15" ht="18.75" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B14" s="13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>11</v>
@@ -1121,7 +1148,9 @@
       <c r="I14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="M14" s="23" t="s">
         <v>31</v>
       </c>
@@ -1135,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="13">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>11</v>
@@ -1158,7 +1187,9 @@
       <c r="I15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1173,10 +1204,10 @@
     </row>
     <row r="16" spans="1:15" ht="18.75" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B16" s="13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>11</v>
@@ -1199,7 +1230,9 @@
       <c r="I16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M16" s="6" t="s">
         <v>19</v>
       </c>
@@ -1214,10 +1247,10 @@
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B17" s="13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>11</v>
@@ -1240,17 +1273,19 @@
       <c r="I17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="18.75" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B18" s="13">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>11</v>
@@ -1273,17 +1308,19 @@
       <c r="I18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="18.75" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B19" s="13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>11</v>
@@ -1306,7 +1343,9 @@
       <c r="I19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="M19" s="22" t="s">
         <v>9</v>
       </c>
@@ -1315,10 +1354,10 @@
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B20" s="13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>11</v>
@@ -1341,7 +1380,9 @@
       <c r="I20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="M20" s="20" t="s">
         <v>31</v>
       </c>
@@ -1352,10 +1393,10 @@
     </row>
     <row r="21" spans="1:15" ht="18.75" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B21" s="13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>11</v>
@@ -1378,17 +1419,19 @@
       <c r="I21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="5">
         <f>COUNTIF(J:J,"Pass")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O21" s="5" t="str">
         <f>TEXT(N21/26,"0.00%")</f>
-        <v>0.00%</v>
+        <v>42.31%</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1">
@@ -1396,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="13">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>11</v>
@@ -1417,17 +1460,19 @@
       <c r="I22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="12"/>
+      <c r="J22" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="M22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="N22" s="6">
         <f>COUNTIF(J:J,"Fail")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O22" s="6" t="str">
         <f>TEXT(N22/26,"0.00%")</f>
-        <v>0.00%</v>
+        <v>38.46%</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectTest65/Excel/AddShift.xlsx
+++ b/ProjectTest65/Excel/AddShift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MiniProjectTest\ProjectTest65\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C535674D-4B75-43B0-8C90-4E57081C4E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331AD65C-E22E-4ECA-8667-EFCD3BA3B2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="1896" windowWidth="10860" windowHeight="7212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddShift" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="46">
   <si>
     <t>Execute</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>ไม่ได้ทำการดับalertในส่วนของวันที่ไว้</t>
+  </si>
+  <si>
+    <t>ผู้ใช้ไม่สามารถทราบได้ว่าเกิดข้อผิดพลาดตรงไหน</t>
   </si>
 </sst>
 </file>
@@ -277,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -307,6 +313,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
@@ -315,7 +332,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,6 +393,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
@@ -687,8 +705,8 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -703,6 +721,7 @@
     <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="19.5" customHeight="1">
@@ -862,6 +881,9 @@
       <c r="J5" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="K5" s="24" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" customHeight="1">
       <c r="A6" s="12" t="s">
@@ -1421,6 +1443,9 @@
       </c>
       <c r="J21" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>16</v>
